--- a/documents/timeline/TMML-Project-Timeline-Detailes-Updated-20190615.xlsx
+++ b/documents/timeline/TMML-Project-Timeline-Detailes-Updated-20190615.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/timeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51686E81-2F54-614F-A540-DD3682A5CFED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B071E922-F426-B440-8E1E-EDDE0A19F24D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26720" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
